--- a/MATLAB/results_sensitivity.xlsx
+++ b/MATLAB/results_sensitivity.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1" xr2:uid="{B799F073-4E72-4FDF-92A5-C2B15FC73B59}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{B799F073-4E72-4FDF-92A5-C2B15FC73B59}"/>
   </bookViews>
   <sheets>
     <sheet name="Logic" sheetId="1" r:id="rId1"/>
@@ -102,7 +102,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,13 +110,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -131,8 +145,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -301,7 +317,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-67FC-4A06-B5BF-4AB6B82A3582}"/>
+              <c16:uniqueId val="{00000000-6458-44C0-AE02-E408486AC1D0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -380,7 +396,437 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-67FC-4A06-B5BF-4AB6B82A3582}"/>
+              <c16:uniqueId val="{00000001-6458-44C0-AE02-E408486AC1D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1189759631"/>
+        <c:axId val="1188617567"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1189759631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1188617567"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1188617567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1189759631"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="106"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="6"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>AGV Parameters Sensitivity Analysis</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sensitivity!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Low</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:tint val="77000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sensitivity!$F$2:$F$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Speed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Count DS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Count SM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Count MB</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Count BP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sensitivity!$G$2:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-5.6285086017908437E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5.8786278824125848E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.74450977324542E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.4095618164513E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.5083478023659473E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-57DC-4DEE-9A76-F2023023010B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sensitivity!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>High</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:shade val="76000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sensitivity!$F$2:$F$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Speed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Count DS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Count SM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Count MB</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Count BP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sensitivity!$H$2:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.6373217819716678E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.74450977324542E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9124622457956115E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.098785985914578E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8447664470580549E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-57DC-4DEE-9A76-F2023023010B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -586,6 +1032,12 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="24">
+  <a:schemeClr val="accent4"/>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
@@ -1091,31 +1543,581 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E1DC5FA-0CB7-46FA-B282-C812B4A5C42E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B215860C-2D39-436F-B047-23DBBD947C6B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9E57F75-8B86-4C39-8076-60AF1095CB14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1431,8 +2433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD585F9-90CC-4715-96E5-A771C095B98B}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1880,88 +2882,90 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>5.4</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="2">
         <v>5.9</v>
       </c>
     </row>
     <row r="17" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17">
+      <c r="D17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
         <v>11</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
         <v>10</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="2">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <v>12</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="2">
         <v>11</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="2">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>16</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
         <v>15</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="2">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <v>17</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="2">
         <v>16</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="2">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1969,8 +2973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF692D14-A8A6-4E78-AAB0-1AC29F8DB9FA}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2143,7 +3147,7 @@
   <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <selection sqref="A1:R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2830,7 +3834,7 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/MATLAB/results_sensitivity.xlsx
+++ b/MATLAB/results_sensitivity.xlsx
@@ -12,13 +12,13 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{B799F073-4E72-4FDF-92A5-C2B15FC73B59}"/>
   </bookViews>
   <sheets>
-    <sheet name="Logic" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Sensitivity" sheetId="4" r:id="rId2"/>
     <sheet name="Results" sheetId="3" r:id="rId3"/>
     <sheet name="Test Cases" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="AGV_Params">Logic!$H$2:$L$12</definedName>
+    <definedName name="AGV_Params">Data!$H$2:$L$12</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -310,7 +310,7 @@
                   <c:v>-2.4095618164513E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-4.5083478023659473E-4</c:v>
+                  <c:v>-2.0987859859146474E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -740,7 +740,7 @@
                   <c:v>-2.4095618164513E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-4.5083478023659473E-4</c:v>
+                  <c:v>-2.0987859859146474E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3114,7 +3114,7 @@
       </c>
       <c r="B6">
         <f>Results!Q11</f>
-        <v>2.4965218115638031E-2</v>
+        <v>2.4724261933992901E-2</v>
       </c>
       <c r="C6">
         <f>Results!$Q$2</f>
@@ -3129,7 +3129,7 @@
       </c>
       <c r="G6">
         <f>C6-B6</f>
-        <v>-4.5083478023659473E-4</v>
+        <v>-2.0987859859146474E-4</v>
       </c>
       <c r="H6">
         <f>C6-D6</f>
@@ -3147,7 +3147,7 @@
   <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:R1"/>
+      <selection activeCell="A2" sqref="A2:R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3726,7 +3726,7 @@
         <v>16</v>
       </c>
       <c r="E11">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -3762,7 +3762,7 @@
         <v>550</v>
       </c>
       <c r="Q11">
-        <v>2.4965218115638031E-2</v>
+        <v>2.4724261933992901E-2</v>
       </c>
       <c r="R11">
         <v>0.75</v>
@@ -3891,23 +3891,23 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
-        <f>Logic!H2</f>
+        <f>Data!H2</f>
         <v>5.4</v>
       </c>
       <c r="B2">
-        <f>Logic!I2</f>
+        <f>Data!I2</f>
         <v>11</v>
       </c>
       <c r="C2">
-        <f>Logic!J2</f>
+        <f>Data!J2</f>
         <v>12</v>
       </c>
       <c r="D2">
-        <f>Logic!K2</f>
+        <f>Data!K2</f>
         <v>16</v>
       </c>
       <c r="E2">
-        <f>Logic!L2</f>
+        <f>Data!L2</f>
         <v>17</v>
       </c>
       <c r="F2">
@@ -3946,23 +3946,23 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f>Logic!H3</f>
+        <f>Data!H3</f>
         <v>4.9000000000000004</v>
       </c>
       <c r="B3">
-        <f>Logic!I3</f>
+        <f>Data!I3</f>
         <v>11</v>
       </c>
       <c r="C3">
-        <f>Logic!J3</f>
+        <f>Data!J3</f>
         <v>12</v>
       </c>
       <c r="D3">
-        <f>Logic!K3</f>
+        <f>Data!K3</f>
         <v>16</v>
       </c>
       <c r="E3">
-        <f>Logic!L3</f>
+        <f>Data!L3</f>
         <v>17</v>
       </c>
       <c r="F3">
@@ -4001,23 +4001,23 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f>Logic!H4</f>
+        <f>Data!H4</f>
         <v>5.9</v>
       </c>
       <c r="B4">
-        <f>Logic!I4</f>
+        <f>Data!I4</f>
         <v>11</v>
       </c>
       <c r="C4">
-        <f>Logic!J4</f>
+        <f>Data!J4</f>
         <v>12</v>
       </c>
       <c r="D4">
-        <f>Logic!K4</f>
+        <f>Data!K4</f>
         <v>16</v>
       </c>
       <c r="E4">
-        <f>Logic!L4</f>
+        <f>Data!L4</f>
         <v>17</v>
       </c>
       <c r="F4">
@@ -4056,23 +4056,23 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f>Logic!H5</f>
+        <f>Data!H5</f>
         <v>5.4</v>
       </c>
       <c r="B5">
-        <f>Logic!I5</f>
+        <f>Data!I5</f>
         <v>10</v>
       </c>
       <c r="C5">
-        <f>Logic!J5</f>
+        <f>Data!J5</f>
         <v>12</v>
       </c>
       <c r="D5">
-        <f>Logic!K5</f>
+        <f>Data!K5</f>
         <v>16</v>
       </c>
       <c r="E5">
-        <f>Logic!L5</f>
+        <f>Data!L5</f>
         <v>17</v>
       </c>
       <c r="F5">
@@ -4111,23 +4111,23 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f>Logic!H6</f>
+        <f>Data!H6</f>
         <v>5.4</v>
       </c>
       <c r="B6">
-        <f>Logic!I6</f>
+        <f>Data!I6</f>
         <v>12</v>
       </c>
       <c r="C6">
-        <f>Logic!J6</f>
+        <f>Data!J6</f>
         <v>12</v>
       </c>
       <c r="D6">
-        <f>Logic!K6</f>
+        <f>Data!K6</f>
         <v>16</v>
       </c>
       <c r="E6">
-        <f>Logic!L6</f>
+        <f>Data!L6</f>
         <v>17</v>
       </c>
       <c r="F6">
@@ -4166,23 +4166,23 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f>Logic!H7</f>
+        <f>Data!H7</f>
         <v>5.4</v>
       </c>
       <c r="B7">
-        <f>Logic!I7</f>
+        <f>Data!I7</f>
         <v>11</v>
       </c>
       <c r="C7">
-        <f>Logic!J7</f>
+        <f>Data!J7</f>
         <v>11</v>
       </c>
       <c r="D7">
-        <f>Logic!K7</f>
+        <f>Data!K7</f>
         <v>16</v>
       </c>
       <c r="E7">
-        <f>Logic!L7</f>
+        <f>Data!L7</f>
         <v>17</v>
       </c>
       <c r="F7">
@@ -4221,23 +4221,23 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f>Logic!H8</f>
+        <f>Data!H8</f>
         <v>5.4</v>
       </c>
       <c r="B8">
-        <f>Logic!I8</f>
+        <f>Data!I8</f>
         <v>11</v>
       </c>
       <c r="C8">
-        <f>Logic!J8</f>
+        <f>Data!J8</f>
         <v>13</v>
       </c>
       <c r="D8">
-        <f>Logic!K8</f>
+        <f>Data!K8</f>
         <v>16</v>
       </c>
       <c r="E8">
-        <f>Logic!L8</f>
+        <f>Data!L8</f>
         <v>17</v>
       </c>
       <c r="F8">
@@ -4276,23 +4276,23 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f>Logic!H9</f>
+        <f>Data!H9</f>
         <v>5.4</v>
       </c>
       <c r="B9">
-        <f>Logic!I9</f>
+        <f>Data!I9</f>
         <v>11</v>
       </c>
       <c r="C9">
-        <f>Logic!J9</f>
+        <f>Data!J9</f>
         <v>12</v>
       </c>
       <c r="D9">
-        <f>Logic!K9</f>
+        <f>Data!K9</f>
         <v>15</v>
       </c>
       <c r="E9">
-        <f>Logic!L9</f>
+        <f>Data!L9</f>
         <v>17</v>
       </c>
       <c r="F9">
@@ -4331,23 +4331,23 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f>Logic!H10</f>
+        <f>Data!H10</f>
         <v>5.4</v>
       </c>
       <c r="B10">
-        <f>Logic!I10</f>
+        <f>Data!I10</f>
         <v>11</v>
       </c>
       <c r="C10">
-        <f>Logic!J10</f>
+        <f>Data!J10</f>
         <v>12</v>
       </c>
       <c r="D10">
-        <f>Logic!K10</f>
+        <f>Data!K10</f>
         <v>17</v>
       </c>
       <c r="E10">
-        <f>Logic!L10</f>
+        <f>Data!L10</f>
         <v>17</v>
       </c>
       <c r="F10">
@@ -4386,23 +4386,23 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f>Logic!H11</f>
+        <f>Data!H11</f>
         <v>5.4</v>
       </c>
       <c r="B11">
-        <f>Logic!I11</f>
+        <f>Data!I11</f>
         <v>11</v>
       </c>
       <c r="C11">
-        <f>Logic!J11</f>
+        <f>Data!J11</f>
         <v>12</v>
       </c>
       <c r="D11">
-        <f>Logic!K11</f>
+        <f>Data!K11</f>
         <v>16</v>
       </c>
       <c r="E11">
-        <f>Logic!L11</f>
+        <f>Data!L11</f>
         <v>16</v>
       </c>
       <c r="F11">
@@ -4441,23 +4441,23 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f>Logic!H12</f>
+        <f>Data!H12</f>
         <v>5.4</v>
       </c>
       <c r="B12">
-        <f>Logic!I12</f>
+        <f>Data!I12</f>
         <v>11</v>
       </c>
       <c r="C12">
-        <f>Logic!J12</f>
+        <f>Data!J12</f>
         <v>12</v>
       </c>
       <c r="D12">
-        <f>Logic!K12</f>
+        <f>Data!K12</f>
         <v>16</v>
       </c>
       <c r="E12">
-        <f>Logic!L12</f>
+        <f>Data!L12</f>
         <v>18</v>
       </c>
       <c r="F12">

--- a/MATLAB/results_sensitivity.xlsx
+++ b/MATLAB/results_sensitivity.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{B799F073-4E72-4FDF-92A5-C2B15FC73B59}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2" xr2:uid="{B799F073-4E72-4FDF-92A5-C2B15FC73B59}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -2433,7 +2433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD585F9-90CC-4715-96E5-A771C095B98B}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -3146,7 +3146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C33499-6AA4-459A-9B84-2EBC527BBE1E}">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:R12"/>
     </sheetView>
   </sheetViews>

--- a/MATLAB/results_sensitivity.xlsx
+++ b/MATLAB/results_sensitivity.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2" xr2:uid="{B799F073-4E72-4FDF-92A5-C2B15FC73B59}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{B799F073-4E72-4FDF-92A5-C2B15FC73B59}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -2433,8 +2433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD585F9-90CC-4715-96E5-A771C095B98B}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3146,7 +3146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C33499-6AA4-459A-9B84-2EBC527BBE1E}">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:R12"/>
     </sheetView>
   </sheetViews>

--- a/MATLAB/results_sensitivity.xlsx
+++ b/MATLAB/results_sensitivity.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samvrit\Box Sync\ENSE 623 - System Verification\Project\MATLAB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kersa\Desktop\agv\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{B799F073-4E72-4FDF-92A5-C2B15FC73B59}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="AGV_Params">Data!$H$2:$L$12</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2430,16 +2430,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD585F9-90CC-4715-96E5-A771C095B98B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>20</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>21</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>19</v>
       </c>
@@ -2585,7 +2585,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>20</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>20</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>20</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>20</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>20</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>20</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>20</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>20</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
         <v>20</v>
@@ -2893,7 +2893,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="1" t="s">
         <v>0</v>
       </c>
@@ -2907,7 +2907,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D17" s="1" t="s">
         <v>1</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D18" s="1" t="s">
         <v>2</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D19" s="1" t="s">
         <v>3</v>
       </c>
@@ -2949,7 +2949,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D20" s="1" t="s">
         <v>4</v>
       </c>
@@ -2970,16 +2970,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF692D14-A8A6-4E78-AAB0-1AC29F8DB9FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>21</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>4.6373217819716678E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>4.74450977324542E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>3.9124622457956115E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>2.098785985914578E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3143,16 +3143,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C33499-6AA4-459A-9B84-2EBC527BBE1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:R12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>5.4</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>4.9000000000000004</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>5.9</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5.4</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5.4</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5.4</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5.4</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5.4</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5.4</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5.4</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>5.4</v>
       </c>
@@ -3830,16 +3830,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA3DE50-8D11-4121-8681-2B57E3545045}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>Data!H2</f>
         <v>5.4</v>
@@ -3944,7 +3944,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>Data!H3</f>
         <v>4.9000000000000004</v>
@@ -3999,7 +3999,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>Data!H4</f>
         <v>5.9</v>
@@ -4054,7 +4054,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>Data!H5</f>
         <v>5.4</v>
@@ -4109,7 +4109,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <f>Data!H6</f>
         <v>5.4</v>
@@ -4164,7 +4164,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <f>Data!H7</f>
         <v>5.4</v>
@@ -4219,7 +4219,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <f>Data!H8</f>
         <v>5.4</v>
@@ -4274,7 +4274,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <f>Data!H9</f>
         <v>5.4</v>
@@ -4329,7 +4329,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <f>Data!H10</f>
         <v>5.4</v>
@@ -4384,7 +4384,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <f>Data!H11</f>
         <v>5.4</v>
@@ -4439,7 +4439,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <f>Data!H12</f>
         <v>5.4</v>

--- a/MATLAB/results_sensitivity.xlsx
+++ b/MATLAB/results_sensitivity.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kersa\Desktop\agv\MATLAB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samvrit\Box Sync\ENSE 623 - System Verification\Project\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="AGV_Params">Data!$H$2:$L$12</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2430,16 +2430,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>20</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>21</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>19</v>
       </c>
@@ -2585,7 +2585,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>20</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>20</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>20</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>20</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>20</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>20</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>20</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>20</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
         <v>20</v>
@@ -2893,7 +2893,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D16" s="1" t="s">
         <v>0</v>
       </c>
@@ -2907,7 +2907,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D17" s="1" t="s">
         <v>1</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D18" s="1" t="s">
         <v>2</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D19" s="1" t="s">
         <v>3</v>
       </c>
@@ -2949,7 +2949,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D20" s="1" t="s">
         <v>4</v>
       </c>
@@ -2970,16 +2970,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>21</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>4.6373217819716678E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>4.74450977324542E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>3.9124622457956115E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>2.098785985914578E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3143,16 +3143,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:R12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5.4</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4.9000000000000004</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5.9</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5.4</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5.4</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5.4</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5.4</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5.4</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5.4</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5.4</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5.4</v>
       </c>
@@ -3830,16 +3830,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>Data!H2</f>
         <v>5.4</v>
@@ -3944,7 +3944,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>Data!H3</f>
         <v>4.9000000000000004</v>
@@ -3999,7 +3999,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>Data!H4</f>
         <v>5.9</v>
@@ -4054,7 +4054,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>Data!H5</f>
         <v>5.4</v>
@@ -4109,7 +4109,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>Data!H6</f>
         <v>5.4</v>
@@ -4164,7 +4164,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>Data!H7</f>
         <v>5.4</v>
@@ -4219,7 +4219,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>Data!H8</f>
         <v>5.4</v>
@@ -4274,7 +4274,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>Data!H9</f>
         <v>5.4</v>
@@ -4329,7 +4329,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>Data!H10</f>
         <v>5.4</v>
@@ -4384,7 +4384,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>Data!H11</f>
         <v>5.4</v>
@@ -4439,7 +4439,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>Data!H12</f>
         <v>5.4</v>
